--- a/pesantren/tahfidz/laporan tahfidz/murojaah-liburan.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/murojaah-liburan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115DD7C-6035-440C-A073-CB5FB99F13AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906B187-DC2F-4BFF-80F4-5DE6D7936EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>18 Desember</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Hanif</t>
+  </si>
+  <si>
+    <t>Idris</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti video call grup</t>
+  </si>
+  <si>
+    <t>Juz 30</t>
+  </si>
+  <si>
+    <t>Juz 29</t>
+  </si>
+  <si>
+    <t>Juz 2</t>
+  </si>
+  <si>
+    <t>Juz 28</t>
+  </si>
+  <si>
+    <t>Juz 26</t>
+  </si>
+  <si>
+    <t>Juz 1</t>
   </si>
 </sst>
 </file>
@@ -59,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,41 +403,89 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="D1:D6">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pesantren/tahfidz/laporan tahfidz/murojaah-liburan.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/murojaah-liburan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906B187-DC2F-4BFF-80F4-5DE6D7936EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506116E-3960-462F-B8E7-B66C28AEDD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>18 Desember</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Juz 1</t>
+  </si>
+  <si>
+    <t>Juz 27</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +474,19 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
